--- a/office_setup_march18.xlsx
+++ b/office_setup_march18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Money left" sheetId="5" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Rent&amp;Deposit" sheetId="1" r:id="rId3"/>
     <sheet name="Facilities Setup" sheetId="2" r:id="rId4"/>
     <sheet name="Lunch Expense" sheetId="3" r:id="rId5"/>
+    <sheet name="Components" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t xml:space="preserve">Rent </t>
   </si>
@@ -86,9 +87,6 @@
     <t>Abhishek</t>
   </si>
   <si>
-    <t>Setup cost</t>
-  </si>
-  <si>
     <t>Money Left</t>
   </si>
   <si>
@@ -96,6 +94,138 @@
   </si>
   <si>
     <t>Remaining</t>
+  </si>
+  <si>
+    <t>White board</t>
+  </si>
+  <si>
+    <t>Chairs (New)</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Mortien</t>
+  </si>
+  <si>
+    <t>Soap</t>
+  </si>
+  <si>
+    <t>Extension board</t>
+  </si>
+  <si>
+    <t>Maharani</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Ultrasonic</t>
+  </si>
+  <si>
+    <t>LDR</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>Resistor 1K</t>
+  </si>
+  <si>
+    <t>Resistor 10K</t>
+  </si>
+  <si>
+    <t>Resistor 220</t>
+  </si>
+  <si>
+    <t>Push Buttons</t>
+  </si>
+  <si>
+    <t>IN4007</t>
+  </si>
+  <si>
+    <t>Capacitor 104PF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breadboard </t>
+  </si>
+  <si>
+    <t>Male Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female Strip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 X 2 </t>
+  </si>
+  <si>
+    <t>Arduino UNO</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>7 segment</t>
+  </si>
+  <si>
+    <t>DC pin</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>DC socket</t>
+  </si>
+  <si>
+    <t>LM35</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Patta Connector</t>
+  </si>
+  <si>
+    <t>Snapper</t>
+  </si>
+  <si>
+    <t>Per Piece/Packet Cost</t>
+  </si>
+  <si>
+    <t>Lakshay</t>
+  </si>
+  <si>
+    <t>Elecbits</t>
+  </si>
+  <si>
+    <t>Rent&amp;Deposit</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Saurav</t>
   </si>
 </sst>
 </file>
@@ -139,10 +269,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,40 +578,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>41933</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B1">
-        <v>39246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3">
+        <v>44977</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>28032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1">
-        <f>(B1-B2)</f>
-        <v>11214</v>
+      <c r="B4" s="1">
+        <f>(B2-B3)</f>
+        <v>-3044</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>41933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -490,15 +664,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -518,10 +692,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>30202</v>
+        <v>23000</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -531,6 +705,12 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>13570</v>
+      </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
@@ -539,11 +719,36 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>2402</v>
+      </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>6005</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2">
-        <v>28032</v>
+      <c r="E5">
+        <v>42007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>
@@ -556,7 +761,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +809,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>16000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -623,7 +828,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>18000</v>
+        <v>23000</v>
       </c>
     </row>
   </sheetData>
@@ -633,10 +838,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -698,8 +903,56 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>10000</v>
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>13570</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +963,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,21 +993,21 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>473</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2">
-        <v>2032</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>845</v>
       </c>
       <c r="D3" t="s">
@@ -768,7 +1021,7 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>714</v>
       </c>
     </row>
@@ -776,13 +1029,483 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2402</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>(C2/B2)</f>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D28" si="0">(C3/B3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
       <c r="B5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>2202</v>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>650</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>250</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>360</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1750</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>450</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>250</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7809</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>225</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>100</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>850</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>6005</v>
       </c>
     </row>
   </sheetData>
